--- a/ProductBacklog/Schätzungen.xlsx
+++ b/ProductBacklog/Schätzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{806E43A7-C1FD-4E95-BAE7-A26C9FC0BE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68954811-742F-4390-BCD8-61EAA4DB6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,12 +157,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -498,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +556,7 @@
         <f>VLOOKUP(C2,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>SUM(D$2:D2)</f>
         <v>1.5</v>
       </c>
@@ -554,7 +575,7 @@
         <f>VLOOKUP(C3,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f>SUM(D$2:D3)</f>
         <v>3.5</v>
       </c>
@@ -573,7 +594,7 @@
         <f>VLOOKUP(C4,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f>SUM(D$2:D4)</f>
         <v>7.5</v>
       </c>
@@ -592,7 +613,7 @@
         <f>VLOOKUP(C5,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f>SUM(D$2:D5)</f>
         <v>11.5</v>
       </c>
@@ -611,7 +632,7 @@
         <f>VLOOKUP(C6,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>SUM(D$2:D6)</f>
         <v>17.5</v>
       </c>
@@ -630,7 +651,7 @@
         <f>VLOOKUP(C7,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f>SUM(D$2:D7)</f>
         <v>20.5</v>
       </c>
@@ -649,7 +670,7 @@
         <f>VLOOKUP(C8,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f>SUM(D$2:D8)</f>
         <v>22.5</v>
       </c>
@@ -668,7 +689,7 @@
         <f>VLOOKUP(C9,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f>SUM(D$2:D9)</f>
         <v>24</v>
       </c>
@@ -687,7 +708,7 @@
         <f>VLOOKUP(C10,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f>SUM(D$2:D10)</f>
         <v>28</v>
       </c>
@@ -706,7 +727,7 @@
         <f>VLOOKUP(C11,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f>SUM(D$2:D11)</f>
         <v>29.5</v>
       </c>
@@ -725,7 +746,7 @@
         <f>VLOOKUP(C12,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f>SUM(D$2:D12)</f>
         <v>31.5</v>
       </c>
@@ -744,7 +765,7 @@
         <f>VLOOKUP(C13,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>SUM(D$2:D13)</f>
         <v>32.5</v>
       </c>
@@ -763,7 +784,7 @@
         <f>VLOOKUP(C14,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>SUM(D$2:D14)</f>
         <v>34.5</v>
       </c>
@@ -782,7 +803,7 @@
         <f>VLOOKUP(C15,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <f>SUM(D$2:D15)</f>
         <v>38.5</v>
       </c>
@@ -801,7 +822,7 @@
         <f>VLOOKUP(C16,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <f>SUM(D$2:D16)</f>
         <v>40</v>
       </c>
@@ -820,7 +841,7 @@
         <f>VLOOKUP(C17,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <f>SUM(D$2:D17)</f>
         <v>46</v>
       </c>
@@ -839,7 +860,7 @@
         <f>VLOOKUP(C18,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <f>SUM(D$2:D18)</f>
         <v>48</v>
       </c>
@@ -858,7 +879,7 @@
         <f>VLOOKUP(C19,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <f>SUM(D$2:D19)</f>
         <v>51</v>
       </c>
@@ -877,7 +898,7 @@
         <f>VLOOKUP(C20,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <f>SUM(D$2:D20)</f>
         <v>53</v>
       </c>
@@ -896,7 +917,7 @@
         <f>VLOOKUP(C21,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <f>SUM(D$2:D21)</f>
         <v>56</v>
       </c>
@@ -915,7 +936,7 @@
         <f>VLOOKUP(C22,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <f>SUM(D$2:D22)</f>
         <v>59</v>
       </c>
@@ -934,7 +955,7 @@
         <f>VLOOKUP(C23,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <f>SUM(D$2:D23)</f>
         <v>62</v>
       </c>
@@ -953,7 +974,7 @@
         <f>VLOOKUP(C24,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <f>SUM(D$2:D24)</f>
         <v>64</v>
       </c>
@@ -973,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ProductBacklog/Schätzungen.xlsx
+++ b/ProductBacklog/Schätzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68954811-742F-4390-BCD8-61EAA4DB6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343A027-EC1B-43D1-85AF-2CB4ADCA4212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>M100</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>&lt;--alternatives Sprintende</t>
   </si>
 </sst>
 </file>
@@ -520,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -542,7 +545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -561,7 +564,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -580,7 +583,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -599,7 +602,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -618,7 +621,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -637,7 +640,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -656,7 +659,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -675,7 +678,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -694,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -712,8 +715,11 @@
         <f>SUM(D$2:D10)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -732,7 +738,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -751,7 +757,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -770,7 +776,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -789,7 +795,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -808,7 +814,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/ProductBacklog/Schätzungen.xlsx
+++ b/ProductBacklog/Schätzungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3343A027-EC1B-43D1-85AF-2CB4ADCA4212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462E710-78DB-43B3-97E7-D8C6D998277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>M100</t>
   </si>
@@ -145,13 +145,61 @@
   </si>
   <si>
     <t>&lt;--alternatives Sprintende</t>
+  </si>
+  <si>
+    <t>Kolloquium</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Heute</t>
+  </si>
+  <si>
+    <t>* Label anzeigen</t>
+  </si>
+  <si>
+    <t>* Belohnungsbildschirm</t>
+  </si>
+  <si>
+    <t>* Skipbuttons</t>
+  </si>
+  <si>
+    <t>Prios</t>
+  </si>
+  <si>
+    <t>Vorbereitung Koll</t>
+  </si>
+  <si>
+    <t>FeatureFreeze</t>
+  </si>
+  <si>
+    <t>virt Abgabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +207,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF969696"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +247,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,12 +283,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF969696"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -523,13 +608,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E5:E10"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -733,7 +821,7 @@
         <f>VLOOKUP(C11,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <f>SUM(D$2:D11)</f>
         <v>29.5</v>
       </c>
@@ -752,7 +840,7 @@
         <f>VLOOKUP(C12,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <f>SUM(D$2:D12)</f>
         <v>31.5</v>
       </c>
@@ -771,7 +859,7 @@
         <f>VLOOKUP(C13,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f>SUM(D$2:D13)</f>
         <v>32.5</v>
       </c>
@@ -790,7 +878,7 @@
         <f>VLOOKUP(C14,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <f>SUM(D$2:D14)</f>
         <v>34.5</v>
       </c>
@@ -833,7 +921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -852,7 +940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -871,7 +959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -885,12 +973,12 @@
         <f>VLOOKUP(C19,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <f>SUM(D$2:D19)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -904,12 +992,12 @@
         <f>VLOOKUP(C20,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <f>SUM(D$2:D20)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -923,12 +1011,36 @@
         <f>VLOOKUP(C21,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <f>SUM(D$2:D21)</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -942,12 +1054,36 @@
         <f>VLOOKUP(C22,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <f>SUM(D$2:D22)</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="7">
+        <v>22</v>
+      </c>
+      <c r="I22" s="8">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8">
+        <v>24</v>
+      </c>
+      <c r="K22" s="8">
+        <v>25</v>
+      </c>
+      <c r="L22" s="4">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -961,12 +1097,18 @@
         <f>VLOOKUP(C23,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <f>SUM(D$2:D23)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -980,18 +1122,125 @@
         <f>VLOOKUP(C24,Tabelle2!A$2:B$8,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <f>SUM(D$2:D24)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24" s="4">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>31</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
       <c r="D25">
         <f>SUM(D2:D24)</f>
         <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26" s="4">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28" s="4">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28" s="4">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Schätzungen.xlsx
+++ b/ProductBacklog/Schätzungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462E710-78DB-43B3-97E7-D8C6D998277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3597667-40A4-40D8-8183-C8E1D54B9F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>M100</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>virt Abgabe</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -610,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +625,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -633,7 +639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -652,7 +658,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -671,7 +677,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -690,7 +696,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -709,7 +715,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,7 +734,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -747,7 +753,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -766,7 +772,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -785,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -807,7 +813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -825,8 +831,11 @@
         <f>SUM(D$2:D11)</f>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -844,8 +853,15 @@
         <f>SUM(D$2:D12)</f>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <f>E10+D12+D14+D15+D16</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -863,8 +879,11 @@
         <f>SUM(D$2:D13)</f>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -882,8 +901,11 @@
         <f>SUM(D$2:D14)</f>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -901,8 +923,11 @@
         <f>SUM(D$2:D15)</f>
         <v>38.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -920,6 +945,9 @@
         <f>SUM(D$2:D16)</f>
         <v>40</v>
       </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -938,6 +966,9 @@
       <c r="E17" s="5">
         <f>SUM(D$2:D17)</f>
         <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">

--- a/ProductBacklog/Schätzungen.xlsx
+++ b/ProductBacklog/Schätzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAG-Leonid\Documents\Uni\ticTacToeTeamprojekt\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3597667-40A4-40D8-8183-C8E1D54B9F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA25D08-44D5-4356-AB8C-93ABD0C52C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>M100</t>
   </si>
@@ -198,7 +198,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>weitere KI</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,16 +622,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -639,7 +645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -658,7 +664,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -677,7 +683,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -696,7 +702,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -715,7 +721,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -734,7 +740,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -753,7 +759,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -772,7 +778,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -791,7 +797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -813,7 +819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -832,10 +838,10 @@
         <v>29.5</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -861,7 +867,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -880,10 +886,10 @@
         <v>32.5</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -905,7 +911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -926,8 +932,14 @@
       <c r="F15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -948,8 +960,17 @@
       <c r="F16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -968,10 +989,19 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -990,7 +1020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1028,7 +1058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1071,7 +1101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1114,7 +1144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1139,7 +1169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1182,7 +1212,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1191,7 +1221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H26">
         <v>5</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1254,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H28">
         <v>12</v>
       </c>
@@ -1247,7 +1277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1258,7 +1288,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H30">
         <v>19</v>
       </c>
@@ -1266,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
         <v>49</v>
       </c>
@@ -1287,9 +1317,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1297,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>

--- a/ProductBacklog/Schätzungen.xlsx
+++ b/ProductBacklog/Schätzungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAG-Leonid\Documents\Uni\ticTacToeTeamprojekt\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA25D08-44D5-4356-AB8C-93ABD0C52C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D45810-E362-472B-AFCF-D516F84A6C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>M100</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>weitere KI</t>
+  </si>
+  <si>
+    <t>Alternativen</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,15 +626,15 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -645,7 +648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -664,7 +667,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -683,7 +686,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -702,7 +705,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -721,7 +724,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -740,7 +743,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -759,7 +762,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -778,7 +781,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -797,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -819,7 +822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -841,7 +844,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -867,7 +870,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -889,7 +892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -911,7 +914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -935,11 +938,15 @@
       <c r="H15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f>E18+SUM(I16:I19)</f>
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -970,7 +977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1001,7 +1008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1019,8 +1026,20 @@
         <f>SUM(D$2:D18)</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1039,7 +1058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1058,7 +1077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1101,7 +1120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1144,7 +1163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1169,7 +1188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1212,7 +1231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1221,7 +1240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>5</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>50</v>
       </c>
@@ -1254,7 +1273,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>12</v>
       </c>
@@ -1277,7 +1296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1288,7 +1307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>19</v>
       </c>
@@ -1296,7 +1315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>49</v>
       </c>
@@ -1317,9 +1336,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
